--- a/tbl打包工具/excel/skillConfig.xlsx
+++ b/tbl打包工具/excel/skillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,17 +16,568 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="150">
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
   <si>
     <t>id_str</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加血量值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加智力值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加防御力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baoji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shanbi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shiqi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shiqi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对士气影响，对己方加成，对敌方减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1对己方，2对敌方。对己方加成，对敌方减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升暴击值（只有对己方有用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升闪避值（只有对己方有用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooldown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼谋</t>
+  </si>
+  <si>
+    <t>机略</t>
+  </si>
+  <si>
+    <t>深谋</t>
+  </si>
+  <si>
+    <t>虚实</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妙计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉着</t>
+  </si>
+  <si>
+    <t>洞察</t>
+  </si>
+  <si>
+    <t>看破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我军闪避率提升40%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我军暴击率提升20%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我军暴击率提升30%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我军暴击率提升40%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我军暴击率提升60%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我军暴击率提升80%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我军闪避率提升20%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我军闪避率提升30%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我军闪避率提升60%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我军闪避率提升80%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒发</t>
+  </si>
+  <si>
+    <t>我军攻击力提升20%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昂扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我军攻击力提升30%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我军攻击力提升40%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜血</t>
+  </si>
+  <si>
+    <t>我军攻击力提升60%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我军攻击力提升80%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怀柔</t>
+  </si>
+  <si>
+    <t>敌军攻击力减少20%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻心</t>
+  </si>
+  <si>
+    <t>敌军攻击力减少30%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掎角</t>
+  </si>
+  <si>
+    <t>敌军攻击力减少40%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕缚</t>
+  </si>
+  <si>
+    <t>敌军攻击力减少60%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌军攻击力减少80%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼓舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我军士气提升20%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激励</t>
+  </si>
+  <si>
+    <t>我军士气提升30%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我军士气提升40%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我军士气提升60%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枭雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我军士气提升80%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄严</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌军士气减少20%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌军士气减少30%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大喝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌军士气减少40%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌军士气减少60%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌军士气减少80%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我军伤病恢复20%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我军伤病恢复40%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我军伤病恢复60%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我军伤病恢复80%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充</t>
+  </si>
+  <si>
+    <t>我军伤病恢复100%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长驱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌军伤病增加20%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆袭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌军伤病增加40%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强袭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌军伤病增加60%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破袭</t>
+  </si>
+  <si>
+    <t>敌军伤病增加80%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急袭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌军伤病增加100%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅佐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我军防御力提升20%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我军防御力提升30%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不屈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我军防御力提升40%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁壁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我军防御力提升60%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我军防御力提升80%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌军防御力减少20%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌军防御力减少30%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌军防御力减少40%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱逐</t>
+  </si>
+  <si>
+    <t>敌军防御力减少60%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踏破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌军防御力减少80%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我军20%即刻发动第二次攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我军30%即刻发动第二次攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我军40%即刻发动第二次攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我军60%即刻发动第二次攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我军80%即刻发动第二次攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能ID字符串(9xxy，9为开始标志，xx为技能编号，y为升级编号）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hp</t>
+    <t>duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却时间(单位毫秒）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -42,117 +593,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>baoji</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>shanbi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>id_str</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附加血量值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附加智力值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附加攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>def</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附加防御力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能ID字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升攻击速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baoji</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shanbi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shiqi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shiqi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对士气影响，对己方加成，对敌方减少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1对己方，2对敌方。对己方加成，对敌方减少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升暴击值（只有对己方有用）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升闪避值（只有对己方有用）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +605,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +620,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -184,7 +637,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -192,11 +645,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -204,6 +737,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -505,54 +1063,2482 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="71.75" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="10.875" style="1" customWidth="1"/>
+    <col min="5" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="71.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>9011</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="6">
+        <v>9012</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
+        <v>9013</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
+        <v>9014</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>9015</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>9021</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
+        <v>9022</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
+        <v>9023</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
+        <v>9024</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>9025</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0</v>
+      </c>
+      <c r="L11" s="10">
+        <v>0</v>
+      </c>
+      <c r="M11" s="10">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>9031</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="6">
+        <v>9032</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" s="6">
+        <v>9033</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" s="6">
+        <v>9034</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>9035</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10">
+        <v>0</v>
+      </c>
+      <c r="K16" s="10">
+        <v>0</v>
+      </c>
+      <c r="L16" s="10">
+        <v>0</v>
+      </c>
+      <c r="M16" s="10">
+        <v>0</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>9041</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="4">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A18" s="6">
+        <v>9042</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="7">
+        <v>2</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A19" s="6">
+        <v>9043</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A20" s="6">
+        <v>9044</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
+        <v>9045</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="10">
+        <v>2</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0</v>
+      </c>
+      <c r="J21" s="10">
+        <v>0</v>
+      </c>
+      <c r="K21" s="10">
+        <v>0</v>
+      </c>
+      <c r="L21" s="10">
+        <v>0</v>
+      </c>
+      <c r="M21" s="10">
+        <v>0</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>9051</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A23" s="6">
+        <v>9052</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A24" s="6">
+        <v>9053</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7">
+        <v>0</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A25" s="6">
+        <v>9054</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A26" s="9">
+        <v>9055</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="10">
+        <v>1</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0</v>
+      </c>
+      <c r="I26" s="10">
+        <v>0</v>
+      </c>
+      <c r="J26" s="10">
+        <v>0</v>
+      </c>
+      <c r="K26" s="10">
+        <v>0</v>
+      </c>
+      <c r="L26" s="10">
+        <v>0</v>
+      </c>
+      <c r="M26" s="10">
+        <v>0</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>9061</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="4">
+        <v>2</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A28" s="6">
+        <v>9062</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A29" s="6">
+        <v>9063</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="7">
+        <v>2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A30" s="6">
+        <v>9064</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A31" s="9">
+        <v>9065</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="10">
+        <v>2</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0</v>
+      </c>
+      <c r="I31" s="10">
+        <v>0</v>
+      </c>
+      <c r="J31" s="10">
+        <v>0</v>
+      </c>
+      <c r="K31" s="10">
+        <v>0</v>
+      </c>
+      <c r="L31" s="10">
+        <v>0</v>
+      </c>
+      <c r="M31" s="10">
+        <v>0</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A32" s="3">
+        <v>9071</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4">
+        <v>0</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A33" s="6">
+        <v>9072</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0</v>
+      </c>
+      <c r="L33" s="7">
+        <v>0</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A34" s="6">
+        <v>9073</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7">
+        <v>0</v>
+      </c>
+      <c r="K34" s="7">
+        <v>0</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A35" s="6">
+        <v>9074</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7">
+        <v>0</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0</v>
+      </c>
+      <c r="M35" s="7">
+        <v>0</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A36" s="9">
+        <v>9075</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="10">
+        <v>1</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0</v>
+      </c>
+      <c r="F36" s="10">
+        <v>0</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0</v>
+      </c>
+      <c r="I36" s="10">
+        <v>0</v>
+      </c>
+      <c r="J36" s="10">
+        <v>0</v>
+      </c>
+      <c r="K36" s="10">
+        <v>0</v>
+      </c>
+      <c r="L36" s="10">
+        <v>0</v>
+      </c>
+      <c r="M36" s="10">
+        <v>0</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A37" s="3">
+        <v>9081</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="4">
+        <v>2</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0</v>
+      </c>
+      <c r="L37" s="4">
+        <v>0</v>
+      </c>
+      <c r="M37" s="4">
+        <v>0</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A38" s="6">
+        <v>9082</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="7">
+        <v>2</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0</v>
+      </c>
+      <c r="K38" s="7">
+        <v>0</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A39" s="6">
+        <v>9083</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="7">
+        <v>2</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0</v>
+      </c>
+      <c r="J39" s="7">
+        <v>0</v>
+      </c>
+      <c r="K39" s="7">
+        <v>0</v>
+      </c>
+      <c r="L39" s="7">
+        <v>0</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A40" s="6">
+        <v>9084</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="7">
+        <v>2</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7">
+        <v>0</v>
+      </c>
+      <c r="K40" s="7">
+        <v>0</v>
+      </c>
+      <c r="L40" s="7">
+        <v>0</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A41" s="9">
+        <v>9085</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="10">
+        <v>2</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0</v>
+      </c>
+      <c r="E41" s="10">
+        <v>0</v>
+      </c>
+      <c r="F41" s="10">
+        <v>0</v>
+      </c>
+      <c r="G41" s="10">
+        <v>0</v>
+      </c>
+      <c r="H41" s="10">
+        <v>0</v>
+      </c>
+      <c r="I41" s="10">
+        <v>0</v>
+      </c>
+      <c r="J41" s="10">
+        <v>0</v>
+      </c>
+      <c r="K41" s="10">
+        <v>0</v>
+      </c>
+      <c r="L41" s="10">
+        <v>0</v>
+      </c>
+      <c r="M41" s="10">
+        <v>0</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A42" s="3">
+        <v>9091</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4">
+        <v>0</v>
+      </c>
+      <c r="J42" s="4">
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
+        <v>0</v>
+      </c>
+      <c r="L42" s="4">
+        <v>0</v>
+      </c>
+      <c r="M42" s="4">
+        <v>0</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A43" s="6">
+        <v>9092</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0</v>
+      </c>
+      <c r="G43" s="7">
+        <v>0</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7">
+        <v>0</v>
+      </c>
+      <c r="K43" s="7">
+        <v>0</v>
+      </c>
+      <c r="L43" s="7">
+        <v>0</v>
+      </c>
+      <c r="M43" s="7">
+        <v>0</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A44" s="6">
+        <v>9093</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="7">
+        <v>1</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0</v>
+      </c>
+      <c r="J44" s="7">
+        <v>0</v>
+      </c>
+      <c r="K44" s="7">
+        <v>0</v>
+      </c>
+      <c r="L44" s="7">
+        <v>0</v>
+      </c>
+      <c r="M44" s="7">
+        <v>0</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A45" s="6">
+        <v>9094</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7">
+        <v>0</v>
+      </c>
+      <c r="E45" s="7">
+        <v>0</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0</v>
+      </c>
+      <c r="J45" s="7">
+        <v>0</v>
+      </c>
+      <c r="K45" s="7">
+        <v>0</v>
+      </c>
+      <c r="L45" s="7">
+        <v>0</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A46" s="9">
+        <v>9095</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="10">
+        <v>1</v>
+      </c>
+      <c r="D46" s="10">
+        <v>0</v>
+      </c>
+      <c r="E46" s="10">
+        <v>0</v>
+      </c>
+      <c r="F46" s="10">
+        <v>0</v>
+      </c>
+      <c r="G46" s="10">
+        <v>0</v>
+      </c>
+      <c r="H46" s="10">
+        <v>0</v>
+      </c>
+      <c r="I46" s="10">
+        <v>0</v>
+      </c>
+      <c r="J46" s="10">
+        <v>0</v>
+      </c>
+      <c r="K46" s="10">
+        <v>0</v>
+      </c>
+      <c r="L46" s="10">
+        <v>0</v>
+      </c>
+      <c r="M46" s="10">
+        <v>0</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A47" s="3">
+        <v>9101</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="4">
+        <v>2</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+      <c r="I47" s="4">
+        <v>0</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0</v>
+      </c>
+      <c r="L47" s="4">
+        <v>0</v>
+      </c>
+      <c r="M47" s="4">
+        <v>0</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A48" s="6">
+        <v>9102</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="7">
+        <v>2</v>
+      </c>
+      <c r="D48" s="7">
+        <v>0</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0</v>
+      </c>
+      <c r="G48" s="7">
+        <v>0</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0</v>
+      </c>
+      <c r="I48" s="7">
+        <v>0</v>
+      </c>
+      <c r="J48" s="7">
+        <v>0</v>
+      </c>
+      <c r="K48" s="7">
+        <v>0</v>
+      </c>
+      <c r="L48" s="7">
+        <v>0</v>
+      </c>
+      <c r="M48" s="7">
+        <v>0</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A49" s="6">
+        <v>9103</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="7">
+        <v>2</v>
+      </c>
+      <c r="D49" s="7">
+        <v>0</v>
+      </c>
+      <c r="E49" s="7">
+        <v>0</v>
+      </c>
+      <c r="F49" s="7">
+        <v>0</v>
+      </c>
+      <c r="G49" s="7">
+        <v>0</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
+      <c r="J49" s="7">
+        <v>0</v>
+      </c>
+      <c r="K49" s="7">
+        <v>0</v>
+      </c>
+      <c r="L49" s="7">
+        <v>0</v>
+      </c>
+      <c r="M49" s="7">
+        <v>0</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A50" s="6">
+        <v>9104</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="7">
+        <v>2</v>
+      </c>
+      <c r="D50" s="7">
+        <v>0</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0</v>
+      </c>
+      <c r="J50" s="7">
+        <v>0</v>
+      </c>
+      <c r="K50" s="7">
+        <v>0</v>
+      </c>
+      <c r="L50" s="7">
+        <v>0</v>
+      </c>
+      <c r="M50" s="7">
+        <v>0</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A51" s="9">
+        <v>9105</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="10">
+        <v>2</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0</v>
+      </c>
+      <c r="E51" s="10">
+        <v>0</v>
+      </c>
+      <c r="F51" s="10">
+        <v>0</v>
+      </c>
+      <c r="G51" s="10">
+        <v>0</v>
+      </c>
+      <c r="H51" s="10">
+        <v>0</v>
+      </c>
+      <c r="I51" s="10">
+        <v>0</v>
+      </c>
+      <c r="J51" s="10">
+        <v>0</v>
+      </c>
+      <c r="K51" s="10">
+        <v>0</v>
+      </c>
+      <c r="L51" s="10">
+        <v>0</v>
+      </c>
+      <c r="M51" s="10">
+        <v>0</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A52" s="3">
+        <v>9111</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="4">
+        <v>1</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0</v>
+      </c>
+      <c r="I52" s="4">
+        <v>0</v>
+      </c>
+      <c r="J52" s="4">
+        <v>0</v>
+      </c>
+      <c r="K52" s="4">
+        <v>0</v>
+      </c>
+      <c r="L52" s="4">
+        <v>0</v>
+      </c>
+      <c r="M52" s="4">
+        <v>0</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A53" s="6">
+        <v>9112</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" s="7">
+        <v>1</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0</v>
+      </c>
+      <c r="E53" s="7">
+        <v>0</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0</v>
+      </c>
+      <c r="G53" s="7">
+        <v>0</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0</v>
+      </c>
+      <c r="I53" s="7">
+        <v>0</v>
+      </c>
+      <c r="J53" s="7">
+        <v>0</v>
+      </c>
+      <c r="K53" s="7">
+        <v>0</v>
+      </c>
+      <c r="L53" s="7">
+        <v>0</v>
+      </c>
+      <c r="M53" s="7">
+        <v>0</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A54" s="6">
+        <v>9113</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" s="7">
+        <v>1</v>
+      </c>
+      <c r="D54" s="7">
+        <v>0</v>
+      </c>
+      <c r="E54" s="7">
+        <v>0</v>
+      </c>
+      <c r="F54" s="7">
+        <v>0</v>
+      </c>
+      <c r="G54" s="7">
+        <v>0</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0</v>
+      </c>
+      <c r="I54" s="7">
+        <v>0</v>
+      </c>
+      <c r="J54" s="7">
+        <v>0</v>
+      </c>
+      <c r="K54" s="7">
+        <v>0</v>
+      </c>
+      <c r="L54" s="7">
+        <v>0</v>
+      </c>
+      <c r="M54" s="7">
+        <v>0</v>
+      </c>
+      <c r="N54" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A55" s="6">
+        <v>9114</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55" s="7">
+        <v>1</v>
+      </c>
+      <c r="D55" s="7">
+        <v>0</v>
+      </c>
+      <c r="E55" s="7">
+        <v>0</v>
+      </c>
+      <c r="F55" s="7">
+        <v>0</v>
+      </c>
+      <c r="G55" s="7">
+        <v>0</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0</v>
+      </c>
+      <c r="I55" s="7">
+        <v>0</v>
+      </c>
+      <c r="J55" s="7">
+        <v>0</v>
+      </c>
+      <c r="K55" s="7">
+        <v>0</v>
+      </c>
+      <c r="L55" s="7">
+        <v>0</v>
+      </c>
+      <c r="M55" s="7">
+        <v>0</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A56" s="9">
+        <v>9115</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" s="10">
+        <v>1</v>
+      </c>
+      <c r="D56" s="10">
+        <v>0</v>
+      </c>
+      <c r="E56" s="10">
+        <v>0</v>
+      </c>
+      <c r="F56" s="10">
+        <v>0</v>
+      </c>
+      <c r="G56" s="10">
+        <v>0</v>
+      </c>
+      <c r="H56" s="10">
+        <v>0</v>
+      </c>
+      <c r="I56" s="10">
+        <v>0</v>
+      </c>
+      <c r="J56" s="10">
+        <v>0</v>
+      </c>
+      <c r="K56" s="10">
+        <v>0</v>
+      </c>
+      <c r="L56" s="10">
+        <v>0</v>
+      </c>
+      <c r="M56" s="10">
+        <v>0</v>
+      </c>
+      <c r="N56" s="11" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -564,10 +3550,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -577,97 +3563,113 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
     </row>
